--- a/target/classes/excel/clear/clear_template.xlsx
+++ b/target/classes/excel/clear/clear_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\clear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB39277-F2A7-44B0-87E6-5138226EF767}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBD1B68-F17D-404B-ADA8-851294780199}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="4200" windowWidth="21555" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11190" yWindow="2295" windowWidth="21555" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{A1478F40-0EF4-4E2D-9B6C-949F12167B38}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:area(lastCell="C9")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{82748838-1886-406F-8B6F-3761625AD152}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:area(lastCell="G9")</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Clear Cells Demo</t>
   </si>
@@ -78,29 +104,38 @@
     <t>t3</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Clear</t>
   </si>
   <si>
     <t>Non qui</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>Valore1</t>
+  </si>
+  <si>
+    <t>Valore3</t>
+  </si>
+  <si>
+    <t>Valore4</t>
+  </si>
+  <si>
+    <t>Prova</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>So</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +149,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -215,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -226,6 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,29 +549,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -539,7 +570,7 @@
       <c r="C3" s="4"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -551,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="1"/>
@@ -575,6 +606,52 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>392</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8">
+        <v>222</v>
+      </c>
+      <c r="G9" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/classes/excel/clear/clear_template.xlsx
+++ b/target/classes/excel/clear/clear_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\clear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBD1B68-F17D-404B-ADA8-851294780199}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D29E38-D214-49C3-A2DA-9259FE979F1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="2295" windowWidth="21555" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7245" yWindow="2295" windowWidth="21555" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,12 +82,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{4EF63C5D-E667-47CD-B31B-3AB93838313F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:area(lastCell="F18")</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Clear Cells Demo</t>
   </si>
@@ -129,13 +142,31 @@
   </si>
   <si>
     <t>So</t>
+  </si>
+  <si>
+    <t>Valore:</t>
+  </si>
+  <si>
+    <t>Att1</t>
+  </si>
+  <si>
+    <t>Att2</t>
+  </si>
+  <si>
+    <t>Att3</t>
+  </si>
+  <si>
+    <t>Att4</t>
+  </si>
+  <si>
+    <t>Att5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +183,12 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -549,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +690,135 @@
       </c>
       <c r="G9" s="9"/>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/target/classes/excel/clear/clear_template.xlsx
+++ b/target/classes/excel/clear/clear_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\clear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D29E38-D214-49C3-A2DA-9259FE979F1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C645C-691D-4BCE-90F7-9A0A1ADF3D11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="2295" windowWidth="21555" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="2790" windowWidth="21555" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Clear Cells Demo</t>
   </si>
@@ -144,9 +144,6 @@
     <t>So</t>
   </si>
   <si>
-    <t>Valore:</t>
-  </si>
-  <si>
     <t>Att1</t>
   </si>
   <si>
@@ -160,6 +157,27 @@
   </si>
   <si>
     <t>Att5</t>
+  </si>
+  <si>
+    <t>Valore1:</t>
+  </si>
+  <si>
+    <t>Valore2:</t>
+  </si>
+  <si>
+    <t>Valore3:</t>
+  </si>
+  <si>
+    <t>Valore4:</t>
+  </si>
+  <si>
+    <t>Valore5:</t>
+  </si>
+  <si>
+    <t>Valore6:</t>
+  </si>
+  <si>
+    <t>Valore7:</t>
   </si>
 </sst>
 </file>
@@ -588,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,24 +710,24 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -729,7 +747,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -749,12 +767,12 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -774,7 +792,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -794,12 +812,12 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>1</v>

--- a/target/classes/excel/clear/clear_template.xlsx
+++ b/target/classes/excel/clear/clear_template.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\clear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C645C-691D-4BCE-90F7-9A0A1ADF3D11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{9B07E4C6-D1C6-455A-B9E3-4447B49351FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="2790" windowWidth="21555" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,8 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SirAlwaid</author>
+    <author>MauroWB</author>
+    <author/>
   </authors>
   <commentList>
     <comment ref="A3" authorId="0" shapeId="0" xr:uid="{3D394395-0FEB-458B-A330-DE90FD520A9C}">
@@ -56,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{A1478F40-0EF4-4E2D-9B6C-949F12167B38}">
+    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{32612DD8-7854-4071-9182-5902043E82EF}">
       <text>
         <r>
           <rPr>
@@ -69,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{82748838-1886-406F-8B6F-3761625AD152}">
+    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{E37B7AC3-CD91-4DE6-9159-2FC7B83B4607}">
       <text>
         <r>
           <rPr>
@@ -78,11 +80,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:area(lastCell="G9")</t>
+          <t xml:space="preserve">
+jx:area(lastCell="G9")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{4EF63C5D-E667-47CD-B31B-3AB93838313F}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{D760C4C0-A285-46FA-82D5-38BB56A51FF3}">
       <text>
         <r>
           <rPr>
@@ -606,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
